--- a/Result/empirical_result.xlsx
+++ b/Result/empirical_result.xlsx
@@ -19,13 +19,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>작업일: 2023년 4월 24일 / 류제현</t>
+    <t>샤프 최적화 / 리벨런싱 Q / max_ratio = 1 / Shrinkage=None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데일리 리벨런싱(2006~)</t>
+    <t xml:space="preserve">Look Back Window (90Days ~ 365Days)                           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130 Days Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업일: 2023년 5월 09일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 그림을 봤을 때, 유의미하게 끊으려면 Cap을 10~20%는 줘야할 것 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마켓과 비교 VS 130 Days</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -33,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +67,22 @@
     <font>
       <b/>
       <sz val="72"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -78,9 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -104,18 +138,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>37803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>411348</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>17099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -128,8 +162,236 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1859643"/>
-          <a:ext cx="22764750" cy="22764750"/>
+          <a:off x="0" y="6176136"/>
+          <a:ext cx="32161348" cy="32131463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>185501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>244230</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>85810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38708834"/>
+          <a:ext cx="31359230" cy="9636976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>404090</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>274796</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33424090" y="6465454"/>
+          <a:ext cx="34795706" cy="34694092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>120</xdr:col>
+      <xdr:colOff>288636</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33020000" y="41794545"/>
+          <a:ext cx="43468636" cy="10506364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>150610</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>108275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>145</xdr:col>
+      <xdr:colOff>617788</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>59430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43330610" y="51119942"/>
+          <a:ext cx="49362178" cy="27467821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>135</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>153</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>3059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="86042500" y="36385500"/>
+          <a:ext cx="11112500" cy="8702559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>170</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="78422500" y="5778500"/>
+          <a:ext cx="29718000" cy="29718000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -404,22 +666,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:EK361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="14" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="12" workbookViewId="0">
+      <selection activeCell="FC274" sqref="FC274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="101.5" x14ac:dyDescent="2.4">
+    <row r="1" spans="1:141" ht="101.5" x14ac:dyDescent="2.4">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:141" ht="101.5" x14ac:dyDescent="2.4">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B112" t="s">
+    <row r="7" spans="1:141" ht="101.5" x14ac:dyDescent="2.4">
+      <c r="A7" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:141" ht="101.5" x14ac:dyDescent="2.4">
+      <c r="EK9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="80:80" x14ac:dyDescent="0.45">
+      <c r="CB83" s="3"/>
+    </row>
+    <row r="222" spans="56:56" ht="101.5" x14ac:dyDescent="2.4">
+      <c r="BD222" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="50:50" ht="101.5" x14ac:dyDescent="2.4">
+      <c r="AX361" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
